--- a/Code/Results/Cases/Case_5_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_149/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.125437531438621</v>
+        <v>1.890262829142387</v>
       </c>
       <c r="C2">
-        <v>0.05797322799209326</v>
+        <v>0.0139978524729969</v>
       </c>
       <c r="D2">
-        <v>0.09738343588091425</v>
+        <v>0.02396514811852057</v>
       </c>
       <c r="E2">
-        <v>0.01850246718726911</v>
+        <v>0.0698253179944528</v>
       </c>
       <c r="F2">
-        <v>7.761069866449702</v>
+        <v>7.206549594585084</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.199278015755219</v>
+        <v>0.2626523037578394</v>
       </c>
       <c r="K2">
-        <v>0.927296710764864</v>
+        <v>1.335197723484043</v>
       </c>
       <c r="L2">
-        <v>0.08498166395867912</v>
+        <v>0.257118995313057</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.016819153727766</v>
+        <v>1.88504199530928</v>
       </c>
       <c r="C3">
-        <v>0.04962171949511429</v>
+        <v>0.01223220692330784</v>
       </c>
       <c r="D3">
-        <v>0.08586621631856417</v>
+        <v>0.02095857312350091</v>
       </c>
       <c r="E3">
-        <v>0.01859639533391277</v>
+        <v>0.07035925692309331</v>
       </c>
       <c r="F3">
-        <v>7.112975094872155</v>
+        <v>7.013907244349667</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1874623171960792</v>
+        <v>0.2592143794183457</v>
       </c>
       <c r="K3">
-        <v>0.8250874173745331</v>
+        <v>1.327649784914826</v>
       </c>
       <c r="L3">
-        <v>0.0799827151278194</v>
+        <v>0.2592806340791682</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9527663887371602</v>
+        <v>1.883239106679923</v>
       </c>
       <c r="C4">
-        <v>0.04461631470217498</v>
+        <v>0.01116520683495992</v>
       </c>
       <c r="D4">
-        <v>0.0788848433590843</v>
+        <v>0.01911154582401764</v>
       </c>
       <c r="E4">
-        <v>0.01868401958508858</v>
+        <v>0.07071429031203191</v>
       </c>
       <c r="F4">
-        <v>6.721466750112256</v>
+        <v>6.896144708780099</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1803383806433274</v>
+        <v>0.2571212288251203</v>
       </c>
       <c r="K4">
-        <v>0.7646490871147194</v>
+        <v>1.324156127387596</v>
       </c>
       <c r="L4">
-        <v>0.07717599131775188</v>
+        <v>0.2607903568575907</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9272731064261563</v>
+        <v>1.882857066619096</v>
       </c>
       <c r="C5">
-        <v>0.04260253955324345</v>
+        <v>0.01073459623059847</v>
       </c>
       <c r="D5">
-        <v>0.07605790817886771</v>
+        <v>0.01835847611923924</v>
       </c>
       <c r="E5">
-        <v>0.0187270805146813</v>
+        <v>0.07086582266483532</v>
       </c>
       <c r="F5">
-        <v>6.563324959311899</v>
+        <v>6.848282981670707</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1774642717752428</v>
+        <v>0.2562726549881731</v>
       </c>
       <c r="K5">
-        <v>0.740550137919854</v>
+        <v>1.323019033808023</v>
       </c>
       <c r="L5">
-        <v>0.07609412503610713</v>
+        <v>0.2614514928437686</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9230752125545223</v>
+        <v>1.882814926617101</v>
       </c>
       <c r="C6">
-        <v>0.04226958907898393</v>
+        <v>0.01066334438581862</v>
       </c>
       <c r="D6">
-        <v>0.07558945720361265</v>
+        <v>0.01823340160713371</v>
       </c>
       <c r="E6">
-        <v>0.01873466994280104</v>
+        <v>0.0708913988814821</v>
       </c>
       <c r="F6">
-        <v>6.537144303979261</v>
+        <v>6.840343176378241</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1769886665465492</v>
+        <v>0.2561320140512038</v>
       </c>
       <c r="K6">
-        <v>0.7365790843593203</v>
+        <v>1.322847522790596</v>
       </c>
       <c r="L6">
-        <v>0.07591810566817259</v>
+        <v>0.2615640477970871</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9524201819538121</v>
+        <v>1.883232526581565</v>
       </c>
       <c r="C7">
-        <v>0.04458905715230088</v>
+        <v>0.01115938259670912</v>
       </c>
       <c r="D7">
-        <v>0.07884665121947876</v>
+        <v>0.01910139143674172</v>
       </c>
       <c r="E7">
-        <v>0.01868457077111163</v>
+        <v>0.07071630616073499</v>
       </c>
       <c r="F7">
-        <v>6.719328593065057</v>
+        <v>6.89549871729352</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1802995072041327</v>
+        <v>0.2571097669162441</v>
       </c>
       <c r="K7">
-        <v>0.7643220003047588</v>
+        <v>1.324139632064316</v>
       </c>
       <c r="L7">
-        <v>0.0771611555028997</v>
+        <v>0.2607990872360588</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.087403537422887</v>
+        <v>1.888171491445121</v>
       </c>
       <c r="C8">
-        <v>0.0550651693651929</v>
+        <v>0.01338544342721804</v>
       </c>
       <c r="D8">
-        <v>0.09339064431259203</v>
+        <v>0.02292859594155061</v>
       </c>
       <c r="E8">
-        <v>0.01852852483205325</v>
+        <v>0.07000378557474196</v>
       </c>
       <c r="F8">
-        <v>7.536138724574869</v>
+        <v>7.140016304967247</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1951742881873528</v>
+        <v>0.2614631856937777</v>
       </c>
       <c r="K8">
-        <v>0.89154044287082</v>
+        <v>1.332358247934934</v>
       </c>
       <c r="L8">
-        <v>0.08320090092296084</v>
+        <v>0.2578264735716544</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.375801244838044</v>
+        <v>1.908995095785798</v>
       </c>
       <c r="C9">
-        <v>0.07682341021904904</v>
+        <v>0.01789140105783105</v>
       </c>
       <c r="D9">
-        <v>0.122859046542132</v>
+        <v>0.0304328021679936</v>
       </c>
       <c r="E9">
-        <v>0.01846911173624211</v>
+        <v>0.06882161802007136</v>
       </c>
       <c r="F9">
-        <v>9.199575164176053</v>
+        <v>7.623826277718138</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2255809753840907</v>
+        <v>0.2701442728343935</v>
       </c>
       <c r="K9">
-        <v>1.162063705292496</v>
+        <v>1.357543038645332</v>
       </c>
       <c r="L9">
-        <v>0.09733689276257707</v>
+        <v>0.2534439857368085</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.606445567282947</v>
+        <v>1.931103118597036</v>
       </c>
       <c r="C10">
-        <v>0.09393292345590964</v>
+        <v>0.02129476794887353</v>
       </c>
       <c r="D10">
-        <v>0.1454466104696621</v>
+        <v>0.0359554411165135</v>
       </c>
       <c r="E10">
-        <v>0.01858976692357128</v>
+        <v>0.0680832922879393</v>
       </c>
       <c r="F10">
-        <v>10.47596193904815</v>
+        <v>7.98219561480991</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2489836576314417</v>
+        <v>0.2766152031088964</v>
       </c>
       <c r="K10">
-        <v>1.377805993820544</v>
+        <v>1.381603391434084</v>
       </c>
       <c r="L10">
-        <v>0.109446126667045</v>
+        <v>0.2511052198032075</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.716558693199744</v>
+        <v>1.942643926733581</v>
       </c>
       <c r="C11">
-        <v>0.1020606515717475</v>
+        <v>0.02286477156769706</v>
       </c>
       <c r="D11">
-        <v>0.1560175151014107</v>
+        <v>0.03847200499390624</v>
       </c>
       <c r="E11">
-        <v>0.01868393109216804</v>
+        <v>0.06777549425174811</v>
       </c>
       <c r="F11">
-        <v>11.07266674831453</v>
+        <v>8.145924044504284</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.259939818848693</v>
+        <v>0.2795803299334665</v>
       </c>
       <c r="K11">
-        <v>1.480717396801936</v>
+        <v>1.393762649370785</v>
       </c>
       <c r="L11">
-        <v>0.1154136517363185</v>
+        <v>0.2502324226436841</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.759109572154074</v>
+        <v>1.947227798893437</v>
       </c>
       <c r="C12">
-        <v>0.1051977212050446</v>
+        <v>0.02346254730062469</v>
       </c>
       <c r="D12">
-        <v>0.160071722787734</v>
+        <v>0.03942574452821646</v>
       </c>
       <c r="E12">
-        <v>0.01872558216246922</v>
+        <v>0.06766296070972189</v>
       </c>
       <c r="F12">
-        <v>11.30134060891351</v>
+        <v>8.208029526195446</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2641407520824828</v>
+        <v>0.2807063136918941</v>
       </c>
       <c r="K12">
-        <v>1.520476922645429</v>
+        <v>1.398542112831223</v>
       </c>
       <c r="L12">
-        <v>0.1177475663923602</v>
+        <v>0.2499293876078781</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.749905666757542</v>
+        <v>1.946231074974008</v>
       </c>
       <c r="C13">
-        <v>0.1045192908364498</v>
+        <v>0.02333365922916641</v>
       </c>
       <c r="D13">
-        <v>0.15919614723785</v>
+        <v>0.03922030287216671</v>
       </c>
       <c r="E13">
-        <v>0.01871633933943428</v>
+        <v>0.06768701811595612</v>
       </c>
       <c r="F13">
-        <v>11.25196387834006</v>
+        <v>8.194649265328167</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2632335607787795</v>
+        <v>0.2804636715589339</v>
       </c>
       <c r="K13">
-        <v>1.511877099073928</v>
+        <v>1.397504978871325</v>
       </c>
       <c r="L13">
-        <v>0.1172414770389025</v>
+        <v>0.2499934298105018</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.72004161246636</v>
+        <v>1.94301676188428</v>
       </c>
       <c r="C14">
-        <v>0.1023174914862039</v>
+        <v>0.02291388514716175</v>
       </c>
       <c r="D14">
-        <v>0.1563499765112226</v>
+        <v>0.0385504533691261</v>
       </c>
       <c r="E14">
-        <v>0.01868723550417428</v>
+        <v>0.06776615550173659</v>
       </c>
       <c r="F14">
-        <v>11.09142298053359</v>
+        <v>8.151031372085072</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2602843423475605</v>
+        <v>0.2796729016827157</v>
       </c>
       <c r="K14">
-        <v>1.483971977517399</v>
+        <v>1.394152348574181</v>
       </c>
       <c r="L14">
-        <v>0.1156041277886786</v>
+        <v>0.2502069411840537</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.701863573065992</v>
+        <v>1.941075729684428</v>
       </c>
       <c r="C15">
-        <v>0.1009768577476819</v>
+        <v>0.02265718802163974</v>
       </c>
       <c r="D15">
-        <v>0.1546135645449169</v>
+        <v>0.03814025627737294</v>
       </c>
       <c r="E15">
-        <v>0.01867020004543463</v>
+        <v>0.06781515293608464</v>
       </c>
       <c r="F15">
-        <v>10.99345344116188</v>
+        <v>8.124327950491761</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2584848802180417</v>
+        <v>0.2791889451382019</v>
       </c>
       <c r="K15">
-        <v>1.466985370988937</v>
+        <v>1.392121571163045</v>
       </c>
       <c r="L15">
-        <v>0.1146111200713591</v>
+        <v>0.2503413008150446</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.599362705023765</v>
+        <v>1.930378778080637</v>
       </c>
       <c r="C16">
-        <v>0.09340949124467102</v>
+        <v>0.02119261291804264</v>
       </c>
       <c r="D16">
-        <v>0.1447624476863467</v>
+        <v>0.03579107724669939</v>
       </c>
       <c r="E16">
-        <v>0.01858443195167236</v>
+        <v>0.06810397129263723</v>
       </c>
       <c r="F16">
-        <v>10.43732262625454</v>
+        <v>7.97151007400609</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2482745056419873</v>
+        <v>0.2764218628412394</v>
       </c>
       <c r="K16">
-        <v>1.371184988560316</v>
+        <v>1.380833222359257</v>
       </c>
       <c r="L16">
-        <v>0.109066042174689</v>
+        <v>0.2511661041946027</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.537883208925109</v>
+        <v>1.924196746640405</v>
       </c>
       <c r="C17">
-        <v>0.08886190497541691</v>
+        <v>0.02029980736828918</v>
       </c>
       <c r="D17">
-        <v>0.1388007104282849</v>
+        <v>0.03435114011503515</v>
       </c>
       <c r="E17">
-        <v>0.01854210804370737</v>
+        <v>0.06828833171709903</v>
       </c>
       <c r="F17">
-        <v>10.10054211039909</v>
+        <v>7.877944353102805</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2420952414771236</v>
+        <v>0.2747298937351985</v>
       </c>
       <c r="K17">
-        <v>1.313705408856464</v>
+        <v>1.374219443874182</v>
       </c>
       <c r="L17">
-        <v>0.1057873315781563</v>
+        <v>0.2517210379706896</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.503003343453372</v>
+        <v>1.920780647475141</v>
       </c>
       <c r="C18">
-        <v>0.08627802467691481</v>
+        <v>0.01978833369136623</v>
       </c>
       <c r="D18">
-        <v>0.1353989289542881</v>
+        <v>0.03352332063758467</v>
       </c>
       <c r="E18">
-        <v>0.01852143836770459</v>
+        <v>0.06839701384162034</v>
       </c>
       <c r="F18">
-        <v>9.908320492660465</v>
+        <v>7.824193899484726</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2385697875625752</v>
+        <v>0.2737587344547308</v>
       </c>
       <c r="K18">
-        <v>1.281086624469708</v>
+        <v>1.370529621670443</v>
       </c>
       <c r="L18">
-        <v>0.1039441577906004</v>
+        <v>0.252058210631553</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.491273289748335</v>
+        <v>1.919647991112441</v>
       </c>
       <c r="C19">
-        <v>0.08540834909534567</v>
+        <v>0.01961550514005239</v>
       </c>
       <c r="D19">
-        <v>0.1342515766274488</v>
+        <v>0.03324309819905125</v>
       </c>
       <c r="E19">
-        <v>0.01851506115105828</v>
+        <v>0.06843426607491754</v>
       </c>
       <c r="F19">
-        <v>9.843481216418866</v>
+        <v>7.806006153242464</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2373808451374373</v>
+        <v>0.2734302609215362</v>
       </c>
       <c r="K19">
-        <v>1.270115438319863</v>
+        <v>1.369299920617237</v>
       </c>
       <c r="L19">
-        <v>0.1033271858412945</v>
+        <v>0.2521754614887968</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.544377241793171</v>
+        <v>1.924840380287435</v>
       </c>
       <c r="C20">
-        <v>0.08934264892204169</v>
+        <v>0.02039463561754928</v>
       </c>
       <c r="D20">
-        <v>0.1394324673650971</v>
+        <v>0.03450438195294225</v>
       </c>
       <c r="E20">
-        <v>0.01854623089768204</v>
+        <v>0.06826843280586381</v>
       </c>
       <c r="F20">
-        <v>10.13623644902535</v>
+        <v>7.887897718158314</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2427500136581315</v>
+        <v>0.2749097975347041</v>
       </c>
       <c r="K20">
-        <v>1.319777762523216</v>
+        <v>1.374911664575592</v>
       </c>
       <c r="L20">
-        <v>0.1061318858519371</v>
+        <v>0.2516601025562579</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.728789324450048</v>
+        <v>1.943955083868616</v>
       </c>
       <c r="C21">
-        <v>0.102962520105919</v>
+        <v>0.02303709385506636</v>
       </c>
       <c r="D21">
-        <v>0.1571845003775252</v>
+        <v>0.03874718223258355</v>
       </c>
       <c r="E21">
-        <v>0.01869561838267408</v>
+        <v>0.06774280186008141</v>
       </c>
       <c r="F21">
-        <v>11.13850058241849</v>
+        <v>8.163840122443844</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2611491217723483</v>
+        <v>0.2799050838071295</v>
       </c>
       <c r="K21">
-        <v>1.492146075169472</v>
+        <v>1.395132343927742</v>
       </c>
       <c r="L21">
-        <v>0.1160829743536667</v>
+        <v>0.2501434821303903</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.854348105337294</v>
+        <v>1.957692913152641</v>
       </c>
       <c r="C22">
-        <v>0.1122149654759852</v>
+        <v>0.02478308781857663</v>
       </c>
       <c r="D22">
-        <v>0.1690899972217039</v>
+        <v>0.04152466629268758</v>
       </c>
       <c r="E22">
-        <v>0.01882837786908986</v>
+        <v>0.06742271399881083</v>
       </c>
       <c r="F22">
-        <v>11.80958770961382</v>
+        <v>8.344798704672826</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2734817053843912</v>
+        <v>0.2831882114252551</v>
       </c>
       <c r="K22">
-        <v>1.609457432619081</v>
+        <v>1.409368070028904</v>
       </c>
       <c r="L22">
-        <v>0.1230233569135564</v>
+        <v>0.2493124217794715</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.786835163986638</v>
+        <v>1.950246743488947</v>
       </c>
       <c r="C23">
-        <v>0.1072410457564388</v>
+        <v>0.02384944147662793</v>
       </c>
       <c r="D23">
-        <v>0.1627048603534718</v>
+        <v>0.0400418013585977</v>
       </c>
       <c r="E23">
-        <v>0.01875418161917608</v>
+        <v>0.06759141036622829</v>
       </c>
       <c r="F23">
-        <v>11.44980001169887</v>
+        <v>8.248160235388127</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2668686937033442</v>
+        <v>0.2814342365340252</v>
       </c>
       <c r="K23">
-        <v>1.546381926814291</v>
+        <v>1.401676685860622</v>
       </c>
       <c r="L23">
-        <v>0.1192761909708864</v>
+        <v>0.2497413238885855</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.541439847445986</v>
+        <v>1.924548963574722</v>
       </c>
       <c r="C24">
-        <v>0.08912521002741869</v>
+        <v>0.02035175813087164</v>
       </c>
       <c r="D24">
-        <v>0.1391467706457092</v>
+        <v>0.03443510127047489</v>
       </c>
       <c r="E24">
-        <v>0.01854435557183365</v>
+        <v>0.06827742072092757</v>
       </c>
       <c r="F24">
-        <v>10.12009471397741</v>
+        <v>7.883397672114569</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.242453907336305</v>
+        <v>0.2748284581240981</v>
       </c>
       <c r="K24">
-        <v>1.317031129080846</v>
+        <v>1.374598361118331</v>
       </c>
       <c r="L24">
-        <v>0.1059759832664042</v>
+        <v>0.2516875949716564</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.2948297985794</v>
+        <v>1.902167461341946</v>
       </c>
       <c r="C25">
-        <v>0.07077045627477929</v>
+        <v>0.01665663344122237</v>
       </c>
       <c r="D25">
-        <v>0.1147508258900984</v>
+        <v>0.02840179777220442</v>
       </c>
       <c r="E25">
-        <v>0.01845743760937513</v>
+        <v>0.06911849401363934</v>
       </c>
       <c r="F25">
-        <v>8.741357535404006</v>
+        <v>7.492451898675085</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.21719284810343</v>
+        <v>0.2677798612287887</v>
       </c>
       <c r="K25">
-        <v>1.086226510468521</v>
+        <v>1.349756155385649</v>
       </c>
       <c r="L25">
-        <v>0.09323596732870243</v>
+        <v>0.2544747810558476</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_149/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.890262829142387</v>
+        <v>1.125437531438621</v>
       </c>
       <c r="C2">
-        <v>0.0139978524729969</v>
+        <v>0.05797322799242011</v>
       </c>
       <c r="D2">
-        <v>0.02396514811852057</v>
+        <v>0.09738343588082898</v>
       </c>
       <c r="E2">
-        <v>0.0698253179944528</v>
+        <v>0.01850246718729398</v>
       </c>
       <c r="F2">
-        <v>7.206549594585084</v>
+        <v>7.761069866449759</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2626523037578394</v>
+        <v>0.1992780157551692</v>
       </c>
       <c r="K2">
-        <v>1.335197723484043</v>
+        <v>0.9272967107650629</v>
       </c>
       <c r="L2">
-        <v>0.257118995313057</v>
+        <v>0.08498166395862228</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.88504199530928</v>
+        <v>1.016819153727766</v>
       </c>
       <c r="C3">
-        <v>0.01223220692330784</v>
+        <v>0.04962171949509298</v>
       </c>
       <c r="D3">
-        <v>0.02095857312350091</v>
+        <v>0.08586621631828706</v>
       </c>
       <c r="E3">
-        <v>0.07035925692309331</v>
+        <v>0.01859639533394297</v>
       </c>
       <c r="F3">
-        <v>7.013907244349667</v>
+        <v>7.112975094872098</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2592143794183457</v>
+        <v>0.1874623171961929</v>
       </c>
       <c r="K3">
-        <v>1.327649784914826</v>
+        <v>0.8250874173745899</v>
       </c>
       <c r="L3">
-        <v>0.2592806340791682</v>
+        <v>0.07998271512759914</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.883239106679923</v>
+        <v>0.9527663887372739</v>
       </c>
       <c r="C4">
-        <v>0.01116520683495992</v>
+        <v>0.04461631470238814</v>
       </c>
       <c r="D4">
-        <v>0.01911154582401764</v>
+        <v>0.0788848433592122</v>
       </c>
       <c r="E4">
-        <v>0.07071429031203191</v>
+        <v>0.01868401958511345</v>
       </c>
       <c r="F4">
-        <v>6.896144708780099</v>
+        <v>6.721466750112199</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2571212288251203</v>
+        <v>0.1803383806434553</v>
       </c>
       <c r="K4">
-        <v>1.324156127387596</v>
+        <v>0.7646490871145204</v>
       </c>
       <c r="L4">
-        <v>0.2607903568575907</v>
+        <v>0.0771759913175174</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.882857066619096</v>
+        <v>0.9272731064263837</v>
       </c>
       <c r="C5">
-        <v>0.01073459623059847</v>
+        <v>0.04260253955303028</v>
       </c>
       <c r="D5">
-        <v>0.01835847611923924</v>
+        <v>0.07605790817873981</v>
       </c>
       <c r="E5">
-        <v>0.07086582266483532</v>
+        <v>0.01872708051466621</v>
       </c>
       <c r="F5">
-        <v>6.848282981670707</v>
+        <v>6.563324959311814</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2562726549881731</v>
+        <v>0.1774642717752073</v>
       </c>
       <c r="K5">
-        <v>1.323019033808023</v>
+        <v>0.740550137919854</v>
       </c>
       <c r="L5">
-        <v>0.2614514928437686</v>
+        <v>0.07609412503627766</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.882814926617101</v>
+        <v>0.9230752125546928</v>
       </c>
       <c r="C6">
-        <v>0.01066334438581862</v>
+        <v>0.04226958907968026</v>
       </c>
       <c r="D6">
-        <v>0.01823340160713371</v>
+        <v>0.07558945720378318</v>
       </c>
       <c r="E6">
-        <v>0.0708913988814821</v>
+        <v>0.0187346699428792</v>
       </c>
       <c r="F6">
-        <v>6.840343176378241</v>
+        <v>6.537144303979233</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2561320140512038</v>
+        <v>0.1769886665464426</v>
       </c>
       <c r="K6">
-        <v>1.322847522790596</v>
+        <v>0.7365790843592634</v>
       </c>
       <c r="L6">
-        <v>0.2615640477970871</v>
+        <v>0.07591810566815838</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883232526581565</v>
+        <v>0.9524201819538689</v>
       </c>
       <c r="C7">
-        <v>0.01115938259670912</v>
+        <v>0.04458905715194561</v>
       </c>
       <c r="D7">
-        <v>0.01910139143674172</v>
+        <v>0.07884665121981271</v>
       </c>
       <c r="E7">
-        <v>0.07071630616073499</v>
+        <v>0.01868457077110985</v>
       </c>
       <c r="F7">
-        <v>6.89549871729352</v>
+        <v>6.719328593065086</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2571097669162441</v>
+        <v>0.1802995072041256</v>
       </c>
       <c r="K7">
-        <v>1.324139632064316</v>
+        <v>0.7643220003047304</v>
       </c>
       <c r="L7">
-        <v>0.2607990872360588</v>
+        <v>0.07716115550271496</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.888171491445121</v>
+        <v>1.087403537423086</v>
       </c>
       <c r="C8">
-        <v>0.01338544342721804</v>
+        <v>0.05506516936563344</v>
       </c>
       <c r="D8">
-        <v>0.02292859594155061</v>
+        <v>0.09339064431270572</v>
       </c>
       <c r="E8">
-        <v>0.07000378557474196</v>
+        <v>0.01852852483204881</v>
       </c>
       <c r="F8">
-        <v>7.140016304967247</v>
+        <v>7.536138724574755</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2614631856937777</v>
+        <v>0.1951742881873884</v>
       </c>
       <c r="K8">
-        <v>1.332358247934934</v>
+        <v>0.89154044287082</v>
       </c>
       <c r="L8">
-        <v>0.2578264735716544</v>
+        <v>0.08320090092306742</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.908995095785798</v>
+        <v>1.375801244838271</v>
       </c>
       <c r="C9">
-        <v>0.01789140105783105</v>
+        <v>0.07682341021953221</v>
       </c>
       <c r="D9">
-        <v>0.0304328021679936</v>
+        <v>0.1228590465414925</v>
       </c>
       <c r="E9">
-        <v>0.06882161802007136</v>
+        <v>0.01846911173630783</v>
       </c>
       <c r="F9">
-        <v>7.623826277718138</v>
+        <v>9.199575164175968</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2701442728343935</v>
+        <v>0.225580975383906</v>
       </c>
       <c r="K9">
-        <v>1.357543038645332</v>
+        <v>1.162063705292468</v>
       </c>
       <c r="L9">
-        <v>0.2534439857368085</v>
+        <v>0.09733689276261259</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.931103118597036</v>
+        <v>1.606445567283146</v>
       </c>
       <c r="C10">
-        <v>0.02129476794887353</v>
+        <v>0.09393292345552595</v>
       </c>
       <c r="D10">
-        <v>0.0359554411165135</v>
+        <v>0.1454466104702163</v>
       </c>
       <c r="E10">
-        <v>0.0680832922879393</v>
+        <v>0.01858976692355441</v>
       </c>
       <c r="F10">
-        <v>7.98219561480991</v>
+        <v>10.47596193904806</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2766152031088964</v>
+        <v>0.2489836576314417</v>
       </c>
       <c r="K10">
-        <v>1.381603391434084</v>
+        <v>1.377805993820573</v>
       </c>
       <c r="L10">
-        <v>0.2511052198032075</v>
+        <v>0.1094461266671587</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.942643926733581</v>
+        <v>1.716558693199772</v>
       </c>
       <c r="C11">
-        <v>0.02286477156769706</v>
+        <v>0.1020606515717049</v>
       </c>
       <c r="D11">
-        <v>0.03847200499390624</v>
+        <v>0.1560175151016381</v>
       </c>
       <c r="E11">
-        <v>0.06777549425174811</v>
+        <v>0.01868393109216626</v>
       </c>
       <c r="F11">
-        <v>8.145924044504284</v>
+        <v>11.07266674831453</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2795803299334665</v>
+        <v>0.2599398188486717</v>
       </c>
       <c r="K11">
-        <v>1.393762649370785</v>
+        <v>1.480717396802049</v>
       </c>
       <c r="L11">
-        <v>0.2502324226436841</v>
+        <v>0.1154136517360698</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.947227798893437</v>
+        <v>1.75910957215379</v>
       </c>
       <c r="C12">
-        <v>0.02346254730062469</v>
+        <v>0.1051977212045188</v>
       </c>
       <c r="D12">
-        <v>0.03942574452821646</v>
+        <v>0.1600717227877198</v>
       </c>
       <c r="E12">
-        <v>0.06766296070972189</v>
+        <v>0.01872558216245679</v>
       </c>
       <c r="F12">
-        <v>8.208029526195446</v>
+        <v>11.30134060891356</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2807063136918941</v>
+        <v>0.2641407520826675</v>
       </c>
       <c r="K12">
-        <v>1.398542112831223</v>
+        <v>1.520476922645429</v>
       </c>
       <c r="L12">
-        <v>0.2499293876078781</v>
+        <v>0.1177475663923175</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.946231074974008</v>
+        <v>1.749905666757599</v>
       </c>
       <c r="C13">
-        <v>0.02333365922916641</v>
+        <v>0.1045192908364641</v>
       </c>
       <c r="D13">
-        <v>0.03922030287216671</v>
+        <v>0.1591961472378784</v>
       </c>
       <c r="E13">
-        <v>0.06768701811595612</v>
+        <v>0.01871633933950356</v>
       </c>
       <c r="F13">
-        <v>8.194649265328167</v>
+        <v>11.25196387833984</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2804636715589339</v>
+        <v>0.2632335607788434</v>
       </c>
       <c r="K13">
-        <v>1.397504978871325</v>
+        <v>1.511877099074098</v>
       </c>
       <c r="L13">
-        <v>0.2499934298105018</v>
+        <v>0.1172414770387249</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.94301676188428</v>
+        <v>1.720041612466389</v>
       </c>
       <c r="C14">
-        <v>0.02291388514716175</v>
+        <v>0.1023174914866445</v>
       </c>
       <c r="D14">
-        <v>0.0385504533691261</v>
+        <v>0.1563499765111231</v>
       </c>
       <c r="E14">
-        <v>0.06776615550173659</v>
+        <v>0.01868723550407658</v>
       </c>
       <c r="F14">
-        <v>8.151031372085072</v>
+        <v>11.09142298053371</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2796729016827157</v>
+        <v>0.26028434234739</v>
       </c>
       <c r="K14">
-        <v>1.394152348574181</v>
+        <v>1.483971977517314</v>
       </c>
       <c r="L14">
-        <v>0.2502069411840537</v>
+        <v>0.1156041277886146</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.941075729684428</v>
+        <v>1.70186357306639</v>
       </c>
       <c r="C15">
-        <v>0.02265718802163974</v>
+        <v>0.1009768577482077</v>
       </c>
       <c r="D15">
-        <v>0.03814025627737294</v>
+        <v>0.1546135645447748</v>
       </c>
       <c r="E15">
-        <v>0.06781515293608464</v>
+        <v>0.01867020004541331</v>
       </c>
       <c r="F15">
-        <v>8.124327950491761</v>
+        <v>10.99345344116182</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2791889451382019</v>
+        <v>0.2584848802182336</v>
       </c>
       <c r="K15">
-        <v>1.392121571163045</v>
+        <v>1.466985370988795</v>
       </c>
       <c r="L15">
-        <v>0.2503413008150446</v>
+        <v>0.1146111200711744</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.930378778080637</v>
+        <v>1.599362705024021</v>
       </c>
       <c r="C16">
-        <v>0.02119261291804264</v>
+        <v>0.0934094912451684</v>
       </c>
       <c r="D16">
-        <v>0.03579107724669939</v>
+        <v>0.1447624476861336</v>
       </c>
       <c r="E16">
-        <v>0.06810397129263723</v>
+        <v>0.01858443195162351</v>
       </c>
       <c r="F16">
-        <v>7.97151007400609</v>
+        <v>10.43732262625457</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2764218628412394</v>
+        <v>0.2482745056418167</v>
       </c>
       <c r="K16">
-        <v>1.380833222359257</v>
+        <v>1.371184988560373</v>
       </c>
       <c r="L16">
-        <v>0.2511661041946027</v>
+        <v>0.1090660421748524</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.924196746640405</v>
+        <v>1.537883208925223</v>
       </c>
       <c r="C17">
-        <v>0.02029980736828918</v>
+        <v>0.0888619049758006</v>
       </c>
       <c r="D17">
-        <v>0.03435114011503515</v>
+        <v>0.1388007104275317</v>
       </c>
       <c r="E17">
-        <v>0.06828833171709903</v>
+        <v>0.01854210804367895</v>
       </c>
       <c r="F17">
-        <v>7.877944353102805</v>
+        <v>10.10054211039923</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2747298937351985</v>
+        <v>0.2420952414773296</v>
       </c>
       <c r="K17">
-        <v>1.374219443874182</v>
+        <v>1.313705408856464</v>
       </c>
       <c r="L17">
-        <v>0.2517210379706896</v>
+        <v>0.1057873315780071</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.920780647475141</v>
+        <v>1.503003343453486</v>
       </c>
       <c r="C18">
-        <v>0.01978833369136623</v>
+        <v>0.08627802467695744</v>
       </c>
       <c r="D18">
-        <v>0.03352332063758467</v>
+        <v>0.1353989289543449</v>
       </c>
       <c r="E18">
-        <v>0.06839701384162034</v>
+        <v>0.0185214383676735</v>
       </c>
       <c r="F18">
-        <v>7.824193899484726</v>
+        <v>9.908320492660465</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2737587344547308</v>
+        <v>0.2385697875624828</v>
       </c>
       <c r="K18">
-        <v>1.370529621670443</v>
+        <v>1.281086624469907</v>
       </c>
       <c r="L18">
-        <v>0.252058210631553</v>
+        <v>0.1039441577907496</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.919647991112441</v>
+        <v>1.491273289748278</v>
       </c>
       <c r="C19">
-        <v>0.01961550514005239</v>
+        <v>0.08540834909531725</v>
       </c>
       <c r="D19">
-        <v>0.03324309819905125</v>
+        <v>0.1342515766271788</v>
       </c>
       <c r="E19">
-        <v>0.06843426607491754</v>
+        <v>0.01851506115104673</v>
       </c>
       <c r="F19">
-        <v>7.806006153242464</v>
+        <v>9.843481216418894</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2734302609215362</v>
+        <v>0.2373808451374941</v>
       </c>
       <c r="K19">
-        <v>1.369299920617237</v>
+        <v>1.270115438319692</v>
       </c>
       <c r="L19">
-        <v>0.2521754614887968</v>
+        <v>0.1033271858412093</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.924840380287435</v>
+        <v>1.544377241793484</v>
       </c>
       <c r="C20">
-        <v>0.02039463561754928</v>
+        <v>0.08934264892208432</v>
       </c>
       <c r="D20">
-        <v>0.03450438195294225</v>
+        <v>0.1394324673646565</v>
       </c>
       <c r="E20">
-        <v>0.06826843280586381</v>
+        <v>0.01854623089775131</v>
       </c>
       <c r="F20">
-        <v>7.887897718158314</v>
+        <v>10.13623644902532</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2749097975347041</v>
+        <v>0.2427500136580605</v>
       </c>
       <c r="K20">
-        <v>1.374911664575592</v>
+        <v>1.319777762523159</v>
       </c>
       <c r="L20">
-        <v>0.2516601025562579</v>
+        <v>0.1061318858518803</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.943955083868616</v>
+        <v>1.728789324449934</v>
       </c>
       <c r="C21">
-        <v>0.02303709385506636</v>
+        <v>0.1029625201059616</v>
       </c>
       <c r="D21">
-        <v>0.03874718223258355</v>
+        <v>0.1571845003773689</v>
       </c>
       <c r="E21">
-        <v>0.06774280186008141</v>
+        <v>0.01869561838259237</v>
       </c>
       <c r="F21">
-        <v>8.163840122443844</v>
+        <v>11.13850058241837</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2799050838071295</v>
+        <v>0.261149121772533</v>
       </c>
       <c r="K21">
-        <v>1.395132343927742</v>
+        <v>1.492146075169359</v>
       </c>
       <c r="L21">
-        <v>0.2501434821303903</v>
+        <v>0.1160829743534961</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.957692913152641</v>
+        <v>1.854348105337039</v>
       </c>
       <c r="C22">
-        <v>0.02478308781857663</v>
+        <v>0.1122149654754594</v>
       </c>
       <c r="D22">
-        <v>0.04152466629268758</v>
+        <v>0.1690899972216329</v>
       </c>
       <c r="E22">
-        <v>0.06742271399881083</v>
+        <v>0.01882837786919289</v>
       </c>
       <c r="F22">
-        <v>8.344798704672826</v>
+        <v>11.80958770961394</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2831882114252551</v>
+        <v>0.2734817053843273</v>
       </c>
       <c r="K22">
-        <v>1.409368070028904</v>
+        <v>1.609457432619024</v>
       </c>
       <c r="L22">
-        <v>0.2493124217794715</v>
+        <v>0.1230233569134853</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.950246743488947</v>
+        <v>1.786835163986211</v>
       </c>
       <c r="C23">
-        <v>0.02384944147662793</v>
+        <v>0.1072410457564672</v>
       </c>
       <c r="D23">
-        <v>0.0400418013585977</v>
+        <v>0.1627048603534718</v>
       </c>
       <c r="E23">
-        <v>0.06759141036622829</v>
+        <v>0.01875418161918851</v>
       </c>
       <c r="F23">
-        <v>8.248160235388127</v>
+        <v>11.44980001169893</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2814342365340252</v>
+        <v>0.2668686937035218</v>
       </c>
       <c r="K23">
-        <v>1.401676685860622</v>
+        <v>1.546381926814576</v>
       </c>
       <c r="L23">
-        <v>0.2497413238885855</v>
+        <v>0.1192761909709503</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.924548963574722</v>
+        <v>1.541439847446611</v>
       </c>
       <c r="C24">
-        <v>0.02035175813087164</v>
+        <v>0.08912521002788765</v>
       </c>
       <c r="D24">
-        <v>0.03443510127047489</v>
+        <v>0.1391467706459224</v>
       </c>
       <c r="E24">
-        <v>0.06827742072092757</v>
+        <v>0.01854435557188605</v>
       </c>
       <c r="F24">
-        <v>7.883397672114569</v>
+        <v>10.12009471397741</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2748284581240981</v>
+        <v>0.2424539073361416</v>
       </c>
       <c r="K24">
-        <v>1.374598361118331</v>
+        <v>1.317031129081158</v>
       </c>
       <c r="L24">
-        <v>0.2516875949716564</v>
+        <v>0.1059759832663616</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.902167461341946</v>
+        <v>1.294829798579315</v>
       </c>
       <c r="C25">
-        <v>0.01665663344122237</v>
+        <v>0.07077045627424638</v>
       </c>
       <c r="D25">
-        <v>0.02840179777220442</v>
+        <v>0.1147508258897858</v>
       </c>
       <c r="E25">
-        <v>0.06911849401363934</v>
+        <v>0.01845743760939111</v>
       </c>
       <c r="F25">
-        <v>7.492451898675085</v>
+        <v>8.741357535404092</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2677798612287887</v>
+        <v>0.2171928481036929</v>
       </c>
       <c r="K25">
-        <v>1.349756155385649</v>
+        <v>1.086226510468578</v>
       </c>
       <c r="L25">
-        <v>0.2544747810558476</v>
+        <v>0.09323596732874506</v>
       </c>
       <c r="M25">
         <v>0</v>
